--- a/pred_ohlcv/54_21/2020-01-24 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 BCH ohlcv.xlsx
@@ -1406,7 +1406,7 @@
         <v>520.1738652899999</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>499.72826529</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>634.0989856099998</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>648.3976856099998</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>832.7386856099998</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>820.5197856099999</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>820.5197856099999</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>692.8036856099999</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>688.7714856099999</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>676.4946856099999</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>657.6554856099999</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>657.65888561</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>657.65888561</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>657.65888561</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>657.65888561</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>673.67888561</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>668.10578561</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>655.62418561</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>660.8391856100001</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>663.43168561</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>663.43168561</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>660.87928561</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>681.1098209100001</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>680.0616209100001</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>748.97852091</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>762.65742091</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>766.36642091</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>744.4422209099999</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>744.4422209099999</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>747.8422209099999</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>748.6422209099999</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>745.8394209099998</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>745.8394209099998</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>738.2122209099998</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-46.39557231000062</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-381.0498723100006</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-577.8430723100006</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-577.8430723100006</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-577.8430723100006</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-577.8430723100006</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-838.3112723100006</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-855.1265723100006</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-681.3808110700007</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-621.3977110700007</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-651.1977110700007</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-519.8710110700007</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-514.7702110700006</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-480.5878784000006</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-474.4096110700007</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-486.0478110700006</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-481.2181110700006</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-486.3189110700006</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-616.9100110700007</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-614.3625657500007</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-611.2813657500008</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-637.4341657500007</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-615.3124657500007</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-642.8709906200006</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-1071.291930750001</v>
       </c>
       <c r="H703">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-1064.727613120001</v>
       </c>
       <c r="H716">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-1008.295113120001</v>
       </c>
       <c r="H720">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-941.5162517100011</v>
       </c>
       <c r="H744">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-1050.946251710001</v>
       </c>
       <c r="H750">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-1055.249751710001</v>
       </c>
       <c r="H751">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-1055.249751710001</v>
       </c>
       <c r="H752">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-1068.590951710001</v>
       </c>
       <c r="H753">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-1068.590951710001</v>
       </c>
       <c r="H754">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-1068.230851710001</v>
       </c>
       <c r="H755">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-1069.589351710001</v>
       </c>
       <c r="H756">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-1066.049951710001</v>
       </c>
       <c r="H757">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-1066.049951710001</v>
       </c>
       <c r="H758">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-1066.846451710001</v>
       </c>
       <c r="H763">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-1089.449951710001</v>
       </c>
       <c r="H764">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-1094.444851710001</v>
       </c>
       <c r="H765">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-1115.244851710001</v>
       </c>
       <c r="H766">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-1115.125251710001</v>
       </c>
       <c r="H767">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-1058.971551710001</v>
       </c>
       <c r="H768">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-1060.983351710001</v>
       </c>
       <c r="H769">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-1060.983351710001</v>
       </c>
       <c r="H770">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-1052.983351710001</v>
       </c>
       <c r="H771">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-1047.983351710001</v>
       </c>
       <c r="H772">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-1047.183351710001</v>
       </c>
       <c r="H773">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-1022.813151710001</v>
       </c>
       <c r="H774">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-1015.672151710001</v>
       </c>
       <c r="H776">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-1031.195051710001</v>
       </c>
       <c r="H783">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-974.0386517100009</v>
       </c>
       <c r="H784">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-971.7532517100009</v>
       </c>
       <c r="H786">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-1171.727243430001</v>
       </c>
       <c r="H809">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-1587.972943430001</v>
       </c>
       <c r="H811">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-1205.619802410001</v>
       </c>
       <c r="H855">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-1206.019802410001</v>
       </c>
       <c r="H856">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-1207.718202410001</v>
       </c>
       <c r="H857">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-1206.458702410001</v>
       </c>
       <c r="H858">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-1189.458702410001</v>
       </c>
       <c r="H859">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-1170.144465160001</v>
       </c>
       <c r="H860">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-820.5618083900018</v>
       </c>
       <c r="H884">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-776.3328083900018</v>
       </c>
       <c r="H885">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-866.6280083900017</v>
       </c>
       <c r="H888">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-867.1525083900017</v>
       </c>
       <c r="H895">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-880.9439083900016</v>
       </c>
       <c r="H896">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-893.5685083900016</v>
       </c>
       <c r="H897">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-844.4074083900016</v>
       </c>
       <c r="H898">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-823.5072083900016</v>
       </c>
       <c r="H899">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-858.0206083900016</v>
       </c>
       <c r="H900">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-933.3303083900016</v>
       </c>
       <c r="H901">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-929.1370083900016</v>
       </c>
       <c r="H902">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-919.1370083900016</v>
       </c>
       <c r="H903">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-946.8759083900015</v>
       </c>
       <c r="H906">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-936.6689083900015</v>
       </c>
       <c r="H907">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-991.9552083900015</v>
       </c>
       <c r="H908">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-998.8203083900015</v>
       </c>
       <c r="H909">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-1026.406808390002</v>
       </c>
       <c r="H910">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-988.4422083900015</v>
       </c>
       <c r="H911">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-1002.701908390001</v>
       </c>
       <c r="H912">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-1002.495508390001</v>
       </c>
       <c r="H913">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-902.1797394100014</v>
       </c>
       <c r="H914">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-857.9131394100016</v>
       </c>
       <c r="H921">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-24 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 BCH ohlcv.xlsx
@@ -1406,7 +1406,7 @@
         <v>520.1738652899999</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>499.72826529</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>371.8007646699999</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>366.9772646699999</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>539.0757973399998</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>539.0757973399998</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>532.7258973399997</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>534.3507973399998</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>612.2524973399998</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>611.7565973399998</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>636.0273973399998</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>641.0715973399998</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>701.6822856099998</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>634.0989856099998</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>648.3976856099998</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>832.7386856099998</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>820.5197856099999</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>820.5197856099999</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>692.8036856099999</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>688.7714856099999</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>676.4946856099999</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>657.6554856099999</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>657.65888561</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>657.65888561</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>657.65888561</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>657.65888561</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>673.67888561</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>668.10578561</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>655.62418561</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>663.43168561</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>660.87928561</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>681.1098209100001</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>748.97852091</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>762.65742091</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>766.36642091</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>744.4422209099999</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>744.4422209099999</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>747.8422209099999</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-46.39557231000062</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-381.0498723100006</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-577.8430723100006</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-577.8430723100006</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-577.8430723100006</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-577.8430723100006</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-838.3112723100006</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-855.1265723100006</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-681.3808110700007</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-621.3977110700007</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-651.1977110700007</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-519.8710110700007</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-514.7702110700006</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-480.5878784000006</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-474.4096110700007</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-486.0478110700006</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-481.2181110700006</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-486.3189110700006</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-616.9100110700007</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-614.3625657500007</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-611.2813657500008</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-637.4341657500007</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-615.3124657500007</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-642.8709906200006</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-1068.590951710001</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-1068.230851710001</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-1069.589351710001</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-1094.444851710001</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-1115.244851710001</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-1115.125251710001</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-1058.971551710001</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-1060.983351710001</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-1060.983351710001</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-1052.983351710001</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-1047.983351710001</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-1047.183351710001</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-1022.813151710001</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-1205.619802410001</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-1206.019802410001</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-1207.718202410001</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-1206.458702410001</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-1189.458702410001</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-1170.144465160001</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-862.8217083900017</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-857.5231083900018</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-859.9541083900018</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-860.9541083900018</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-893.5685083900016</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-844.4074083900016</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-823.5072083900016</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-858.0206083900016</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-1026.406808390002</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-988.4422083900015</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-1002.701908390001</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-1002.495508390001</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-902.1797394100014</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="915" spans="1:8">
